--- a/biology/Zoologie/Anenthemonae/Anenthemonae.xlsx
+++ b/biology/Zoologie/Anenthemonae/Anenthemonae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anenthemonae sont un sous-ordre d'anémones de mer de l'ordre des Actiniaria.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 2014, ce sous-ordre regroupe les trois seules familles contemporaines à ne pas être classées parmi les Enthemonae. Elles se distinguent des autres anémones par la forme du mésentère, critère confirmé par les données d'éloignement génétique[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 2014, ce sous-ordre regroupe les trois seules familles contemporaines à ne pas être classées parmi les Enthemonae. Elles se distinguent des autres anémones par la forme du mésentère, critère confirmé par les données d'éloignement génétique. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2017) :
 sous-ordre Anenthemonae Rodríguez &amp; Daly in Rodríguez et al., 2014
 super-famille Actinernoidea Stephenson, 1922
 famille Actinernidae Stephenson, 1922 -- 4 genres
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Estefanía Rodríguez, Marcos S. Barbeitos, Mercer R. Brugler, Louise M. Crowley, Alejandro Grajales, Luciana Gusmão, Verena Häussermann, Abigail Reft et Marymegan Daly, « Hidden among sea anemones: the first comprehensive phylogenetic reconstruction of the order Actiniaria (Cnidaria, Anthozoa, Hexacorallia) reveals a novel group of hexacorals », PLOS One, PLoS, vol. 9, no 5,‎ 2014, e96998 (ISSN 1932-6203, OCLC 228234657, PMID 24806477, PMCID 4013120, DOI 10.1371/JOURNAL.PONE.0096998, lire en ligne)</t>
         </is>
